--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBAB35-DC4D-4EE5-9BA1-3F7CB3F22C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="53" activeTab="53"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Трюм 1" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +229,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -530,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,7 +3130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3408,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3731,7 +3776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4054,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,7 +4422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4700,7 +4745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5023,7 +5068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5346,7 +5391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7395,7 +7440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9444,7 +9489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11493,7 +11538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14048,7 +14093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16097,7 +16142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18146,7 +18191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20195,12 +20240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22244,7 +22289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24293,12 +24338,1060 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-2.2120000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>-2.2120000000000002</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.4450000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-2.2250000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>9.4450000000000003</v>
+      </c>
+      <c r="L4" s="7">
+        <v>-2.2250000000000001</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.3840000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-2.2570000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.556</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.3510000000000009</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.633</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.3160000000000007</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-2.2949999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.2789999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-2.3170000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.1989999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-2.367</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.157</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-2.395</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.1110000000000007</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-2.4249999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.0630000000000006</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-2.4580000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.1920000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-2.492</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.9570000000000007</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-2.528</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.432</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.8989999999999991</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2.5659999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.254</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.8369999999999997</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-2.6059999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-2.6469999999999998</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.6020000000000003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-2.6890000000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.6840000000000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.915</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.625</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-2.7320000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.036</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.079</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.5489999999999995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-2.7759999999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-2.8220000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.4139999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-2.87</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.008</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5.5460000000000003</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-2.919</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.085</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.298</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.899</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.3059999999999992</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-2.97</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5.1609999999999996</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7.0309999999999997</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.2609999999999992</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-3.0209999999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7.7249999999999996</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-3.0720000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5.3090000000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8.39</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7.2759999999999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-3.1240000000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.3810000000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.9710000000000001</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8.218</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.1560000000000006</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-3.1739999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.452</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9.6140000000000008</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6.923</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9.2140000000000004</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-3.2240000000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.5220000000000002</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10.193</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7.9630000000000001</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10.263</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.1039999999999992</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-3.274</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.5910000000000002</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10.744999999999999</v>
+      </c>
+      <c r="G32" s="3">
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10.951000000000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-3.3039999999999998</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24336,790 +25429,6 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.4740000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-2.2120000000000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.4450000000000003</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-2.2250000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.4160000000000004</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.4780000000000002</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.3840000000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-2.2570000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.556</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.3510000000000009</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-2.2749999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.633</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.3160000000000007</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-2.2949999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.7120000000000002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.2789999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-2.3170000000000002</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.7909999999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-2.3410000000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.108</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.1989999999999998</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-2.367</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.159</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.157</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-2.395</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.03</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.1110000000000007</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-2.4249999999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.1109999999999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.313</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.0630000000000006</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-2.4580000000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.1920000000000002</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.0120000000000005</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-2.492</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4.2729999999999997</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.9570000000000007</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-2.528</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.432</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.8989999999999991</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-2.5659999999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.4370000000000003</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.8369999999999997</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-2.6059999999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.5190000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.77</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-2.6469999999999998</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4.6020000000000003</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.55100000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-2.6890000000000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.6840000000000002</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.1429999999999998</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.915</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8.625</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-2.7320000000000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4.7670000000000003</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3.036</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2.36</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.5489999999999995</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-2.7759999999999998</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1.4359999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.4779999999999998</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-2.8220000000000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4.9290000000000003</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.8480000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3.4460000000000002</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8.4139999999999997</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-2.87</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5.008</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2.3380000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4.0869999999999997</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.3569999999999993</v>
-      </c>
-      <c r="D25" s="2">
-        <v>-2.919</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5.085</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6.298</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2.899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4.7930000000000001</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8.3059999999999992</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-2.97</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5.1609999999999996</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7.0309999999999997</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3.5609999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5.5609999999999999</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8.2609999999999992</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-3.0209999999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5.2359999999999998</v>
-      </c>
-      <c r="F27" s="3">
-        <v>7.7249999999999996</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>6.39</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8.2219999999999995</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-3.0720000000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5.3090000000000002</v>
-      </c>
-      <c r="F28" s="3">
-        <v>8.39</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5.0940000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="B29" s="2">
-        <v>7.2759999999999998</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8.1869999999999994</v>
-      </c>
-      <c r="D29" s="2">
-        <v>-3.1240000000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5.3810000000000002</v>
-      </c>
-      <c r="F29" s="3">
-        <v>9.0150000000000006</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5.9710000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="B30" s="2">
-        <v>8.218</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.1560000000000006</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-3.1739999999999999</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5.452</v>
-      </c>
-      <c r="F30" s="3">
-        <v>9.6140000000000008</v>
-      </c>
-      <c r="G30" s="3">
-        <v>6.923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9.2140000000000004</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8.1280000000000001</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-3.2240000000000002</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5.5220000000000002</v>
-      </c>
-      <c r="F31" s="3">
-        <v>10.193</v>
-      </c>
-      <c r="G31" s="3">
-        <v>7.9630000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10.263</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8.1039999999999992</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-3.274</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5.5910000000000002</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10.744999999999999</v>
-      </c>
-      <c r="G32" s="3">
-        <v>9.0649999999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>3.0630000000000002</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10.951000000000001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8.09</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-3.3039999999999998</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5.6349999999999998</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -25861,7 +26170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26484,7 +26793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27107,7 +27416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27960,7 +28269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30262,7 +30571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31115,7 +31424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32336,7 +32645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33629,7 +33938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35563,7 +35872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37497,7 +37806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37821,7 +38130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38605,7 +38914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39458,7 +39767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39897,7 +40206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40750,7 +41059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42293,7 +42602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43146,7 +43455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43999,7 +44308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44300,7 +44609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44762,7 +45071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45224,7 +45533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46169,7 +46478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47114,7 +47423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47576,7 +47885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48038,7 +48347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48661,7 +48970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48984,7 +49293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49423,7 +49732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49862,7 +50171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50301,7 +50610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50740,10 +51049,10 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
@@ -51156,7 +51465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51479,7 +51788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51802,7 +52111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52125,7 +52434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBAB35-DC4D-4EE5-9BA1-3F7CB3F22C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845C7FE-8027-4684-86F3-B4BA0548B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Трюм 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="26">
   <si>
     <t>H</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>6838.74^</t>
-  </si>
-  <si>
-    <t>0 001</t>
   </si>
   <si>
     <t>0 394</t>
@@ -231,11 +228,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3530,7 +3529,7 @@
         <v>-5.5220000000000002</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>7807.9189999999999</v>
@@ -3645,7 +3644,7 @@
         <v>-5.7240000000000002</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3">
         <v>9254.6020000000008</v>
@@ -11522,7 +11521,7 @@
         <v>-7.2629999999999999</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -14438,7 +14437,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>87.650999999999996</v>
@@ -14530,7 +14529,7 @@
         <v>1.7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>87.712000000000003</v>
@@ -20244,7 +20243,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -23390,7 +23389,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>72</v>
@@ -24339,11 +24338,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24356,7 +24355,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24379,1005 +24378,741 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>0.1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-2.2120000000000002</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>0.2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.4740000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-2.2120000000000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>9.4740000000000002</v>
-      </c>
-      <c r="L3" s="7">
-        <v>-2.2120000000000002</v>
-      </c>
-      <c r="M3" s="7">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="6">
         <v>9.4450000000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>-2.2250000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>3.4009999999999998</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="K4" s="7">
-        <v>9.4450000000000003</v>
-      </c>
-      <c r="L4" s="7">
-        <v>-2.2250000000000001</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>9.4160000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>3.4780000000000002</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>9.3840000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>-2.2570000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>3.556</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>1E-3</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>9.3510000000000009</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>-2.2749999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>3.633</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>2E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>9.3160000000000007</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>-2.2949999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>3.7120000000000002</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>9.2789999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>-2.3170000000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>3.7909999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>0.01</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>9.24</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>2.3410000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>3.87</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>0.108</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>9.1989999999999998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>-2.367</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>3.95</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>0.159</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>9.157</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>-2.395</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>4.03</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>6.3E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>9.1110000000000007</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>-2.4249999999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>4.1109999999999998</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>0.106</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>0.313</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>9.0630000000000006</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>-2.4580000000000002</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>4.1920000000000002</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>0.17299999999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>9.0120000000000005</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>-2.492</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>4.2729999999999997</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>0.105</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>0.56499999999999995</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>8.9570000000000007</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>-2.528</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>4.3550000000000004</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>0.432</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1.5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>0.74</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>8.8989999999999991</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>-2.5659999999999998</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>4.4370000000000003</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>0.66200000000000003</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>0.254</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1.6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.95599999999999996</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>8.8369999999999997</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>-2.6059999999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>4.5190000000000001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>0.998</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>0.38</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1.7</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>8.77</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>-2.6469999999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>4.6020000000000003</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>1.4790000000000001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>0.55100000000000005</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1.8</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>1.5369999999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>-2.6890000000000001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>4.6840000000000002</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>2.1429999999999998</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>0.78200000000000003</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1.9</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>1.915</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>8.625</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>-2.7320000000000002</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>4.7670000000000003</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>3.036</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>1.079</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>2.36</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>8.5489999999999995</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>-2.7759999999999998</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>4.8490000000000002</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>3.92</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>1.4359999999999999</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2.1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>2.87</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>8.4779999999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>-2.8220000000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>4.9290000000000003</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>4.75</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <v>1.8480000000000001</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>3.4460000000000002</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>8.4139999999999997</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>-2.87</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>5.008</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>5.5460000000000003</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <v>2.3380000000000001</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>4.0869999999999997</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>8.3569999999999993</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>-2.919</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <v>5.085</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>6.298</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <v>2.899</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2.4</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>4.7930000000000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>8.3059999999999992</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>-2.97</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <v>5.1609999999999996</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>7.0309999999999997</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>3.5609999999999999</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2.5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>5.5609999999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>8.2609999999999992</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>-3.0209999999999999</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>5.2359999999999998</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>7.7249999999999996</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <v>4.29</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2.6</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>6.39</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>8.2219999999999995</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>-3.0720000000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <v>5.3090000000000002</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>8.39</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>5.0940000000000003</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2.7</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>7.2759999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>8.1869999999999994</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>-3.1240000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="5">
         <v>5.3810000000000002</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>9.0150000000000006</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>5.9710000000000001</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2.8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>8.218</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>8.1560000000000006</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>-3.1739999999999999</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <v>5.452</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>9.6140000000000008</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>6.923</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2.9</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>9.2140000000000004</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>8.1280000000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>-3.2240000000000002</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <v>5.5220000000000002</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>10.193</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <v>7.9630000000000001</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>10.263</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>8.1039999999999992</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>-3.274</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <v>5.5910000000000002</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>10.744999999999999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>9.0649999999999995</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>3.0630000000000002</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>10.951000000000001</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>8.09</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>-3.3039999999999998</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <v>5.6349999999999998</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25389,7 +25124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
@@ -26245,7 +25980,7 @@
         <v>2.1459999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>7.3010000000000002</v>
@@ -33123,7 +32858,7 @@
         <v>15.497</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -36778,7 +36513,7 @@
         <v>5.0039999999999996</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="3">
         <v>89.034999999999997</v>
@@ -38898,7 +38633,7 @@
         <v>-4.8579999999999997</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -41275,7 +41010,7 @@
         <v>1E-3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
         <v>41.161999999999999</v>
@@ -42169,7 +41904,7 @@
         <v>121.934</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2">
         <v>2.35</v>
@@ -42186,7 +41921,7 @@
         <v>4.7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2">
         <v>121.93300000000001</v>
@@ -49047,7 +48782,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>11266.157999999999</v>
@@ -52626,7 +52361,7 @@
         <v>-2.6059999999999999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>1696.885</v>
@@ -52672,7 +52407,7 @@
         <v>-2.698</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>1789.6949999999999</v>

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97376A47-91EB-495A-B8C8-7BB99F99B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B623CD3-3F4F-4D77-B843-D9A5164B98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Трюм 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="24">
   <si>
     <t>H</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>6838.74^</t>
-  </si>
-  <si>
-    <t>0 394</t>
   </si>
   <si>
     <t>-0 027</t>
@@ -596,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="N81:O83"/>
     </sheetView>
   </sheetViews>
@@ -3548,7 +3545,7 @@
         <v>-5.5220000000000002</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4">
         <v>95.417000000000002</v>
@@ -3663,7 +3660,7 @@
         <v>-5.7240000000000002</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>145.95599999999999</v>
@@ -11540,7 +11537,7 @@
         <v>-7.2629999999999999</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -14456,7 +14453,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>87.650999999999996</v>
@@ -14548,7 +14545,7 @@
         <v>1.7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>87.712000000000003</v>
@@ -23408,7 +23405,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
         <v>72</v>
@@ -25999,7 +25996,7 @@
         <v>2.1459999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>7.3010000000000002</v>
@@ -36598,7 +36595,7 @@
         <v>5.0039999999999996</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="4">
         <v>14.343999999999999</v>
@@ -38718,7 +38715,7 @@
         <v>-4.8579999999999997</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -40882,9 +40879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41094,8 +41091,8 @@
       <c r="D9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
+      <c r="E9" s="2">
+        <v>0.39400000000000002</v>
       </c>
       <c r="F9" s="4">
         <v>41.252000000000002</v>
@@ -41989,7 +41986,7 @@
         <v>121.934</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>2.35</v>
@@ -42006,7 +42003,7 @@
         <v>4.7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>121.93300000000001</v>
@@ -42127,7 +42124,7 @@
         <v>121.92400000000001</v>
       </c>
       <c r="D54" s="2">
-        <v>-33</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E54" s="2">
         <v>2.669</v>
@@ -48867,7 +48864,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>1037.579</v>
@@ -52446,7 +52443,7 @@
         <v>-2.6059999999999999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4">
         <v>251.023</v>
@@ -52492,7 +52489,7 @@
         <v>-2.698</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4">
         <v>278.59899999999999</v>

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Tank_curve.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B623CD3-3F4F-4D77-B843-D9A5164B98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C65C28-AA6D-4ED7-A2DB-0777F3699E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Трюм 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
   <si>
     <t>H</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>0 050</t>
-  </si>
-  <si>
-    <t>0 320</t>
-  </si>
-  <si>
-    <t>0 428</t>
   </si>
   <si>
     <t>0 051</t>
@@ -3545,7 +3539,7 @@
         <v>-5.5220000000000002</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4">
         <v>95.417000000000002</v>
@@ -3660,7 +3654,7 @@
         <v>-5.7240000000000002</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4">
         <v>145.95599999999999</v>
@@ -11537,7 +11531,7 @@
         <v>-7.2629999999999999</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -14453,7 +14447,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>87.650999999999996</v>
@@ -14545,7 +14539,7 @@
         <v>1.7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>87.712000000000003</v>
@@ -23405,7 +23399,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2">
         <v>72</v>
@@ -25996,7 +25990,7 @@
         <v>2.1459999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>7.3010000000000002</v>
@@ -36595,7 +36589,7 @@
         <v>5.0039999999999996</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" s="4">
         <v>14.343999999999999</v>
@@ -38715,7 +38709,7 @@
         <v>-4.8579999999999997</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -40879,9 +40873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52254,8 +52248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52304,7 +52298,7 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="4">
@@ -52327,8 +52321,8 @@
       <c r="D3" s="2">
         <v>-2.1749999999999998</v>
       </c>
-      <c r="E3" s="2">
-        <v>53</v>
+      <c r="E3" s="4">
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F3" s="4">
         <v>146.655</v>
@@ -52350,7 +52344,7 @@
       <c r="D4" s="2">
         <v>-2.3170000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>0.106</v>
       </c>
       <c r="F4" s="4">
@@ -52373,7 +52367,7 @@
       <c r="D5" s="2">
         <v>-2.4129999999999998</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.159</v>
       </c>
       <c r="F5" s="4">
@@ -52396,7 +52390,7 @@
       <c r="D6" s="2">
         <v>-2.488</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>0.21299999999999999</v>
       </c>
       <c r="F6" s="4">
@@ -52419,7 +52413,7 @@
       <c r="D7" s="2">
         <v>-2.5510000000000002</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="F7" s="4">
@@ -52442,8 +52436,8 @@
       <c r="D8" s="2">
         <v>-2.6059999999999999</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
+      <c r="E8" s="4">
+        <v>0.32</v>
       </c>
       <c r="F8" s="4">
         <v>251.023</v>
@@ -52465,7 +52459,7 @@
       <c r="D9" s="2">
         <v>-2.6539999999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>0.374</v>
       </c>
       <c r="F9" s="4">
@@ -52488,8 +52482,8 @@
       <c r="D10" s="2">
         <v>-2.698</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
+      <c r="E10" s="4">
+        <v>0.42799999999999999</v>
       </c>
       <c r="F10" s="4">
         <v>278.59899999999999</v>
@@ -52511,7 +52505,7 @@
       <c r="D11" s="2">
         <v>-2.738</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>0.48099999999999998</v>
       </c>
       <c r="F11" s="4">
@@ -52534,7 +52528,7 @@
       <c r="D12" s="2">
         <v>-2.774</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>0.53500000000000003</v>
       </c>
       <c r="F12" s="4">
@@ -52557,7 +52551,7 @@
       <c r="D13" s="2">
         <v>-2.8079999999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>0.58899999999999997</v>
       </c>
       <c r="F13" s="4">
